--- a/act-iac/ACT-IAC_Events-03.01.23.xlsx
+++ b/act-iac/ACT-IAC_Events-03.01.23.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jorcas/Development/python_scraper_parser_projects/act-iac/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56DEE7C2-F77E-9644-820D-B384E3341229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Events Calendar" sheetId="1" r:id="rId1"/>
     <sheet name="COIs" sheetId="2" r:id="rId2"/>
     <sheet name="Projects" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
   <si>
     <t>Event Type</t>
   </si>
@@ -171,13 +177,13 @@
     <t>Join the ACT-IAC IT Management and Modernization COI meeting to hear how Federal agencies are "Driving Innovation through Agile and Lean Methodologies".</t>
   </si>
   <si>
-    <t xml:space="preserve">The Voyager Class of 2023 invites all Fellows to Voyagers Got Talent showcasing the incredible talents of this year's Voyager Class. </t>
+    <t>The Voyager Class of 2023 invites all Fellows to Voyagers Got Talent showcasing the incredible talents of this year's Voyager Class. </t>
   </si>
   <si>
     <t>Join the ACT-IAC Cyber COI member meeting to hear from an invited government speakers Heather Kowalski, CIO, Interpol, Department of Justice, and Dr. Tiina KO Rodrigue, CISO, CFPB</t>
   </si>
   <si>
-    <t xml:space="preserve">This program is being planned by the Department of Education Federal Insights Exchange (FIE) planning team. </t>
+    <t>This program is being planned by the Department of Education Federal Insights Exchange (FIE) planning team. </t>
   </si>
   <si>
     <t>Join the ACT-IAC Evolving the Workforce COI March 2023 member meeting. More information about topic " The ABCs of Recruiting Gen Z" and speaker/s will be available soon.</t>
@@ -282,10 +288,10 @@
     <t>The Acquisition COI is focused on increasing engagement and facilitating the sharing of best practices between the government and industry to improve the federal acquisition process.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Customer Experience COI strives to change the culture in government and industry to understand what is needed to be customer-centric. This includes all aspects of supporting the citizen journey, from understanding customer expectations through training and educating leaders to understand the importance of being customer-centric. This COI focuses on culture, training &amp; professional development, innovation, agency support, and tools &amp; practices to break down barriers to improving the overall customer experience. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Cybersecurity COI is focused on being a primary contributor for ACT-IAC membership to solve their key challenges of information security and privacy. The COI goal is to provide thought leadership to effectively enable them to address their mission security and privacy needs in the midst of mission needs, applicable governmental policy, regulations and laws, and the ever-changing IT security and privacy threats. COI members focus on blending information security, sharing, and privacy policies from acquisition through execution. </t>
+    <t>The Customer Experience COI strives to change the culture in government and industry to understand what is needed to be customer-centric. This includes all aspects of supporting the citizen journey, from understanding customer expectations through training and educating leaders to understand the importance of being customer-centric. This COI focuses on culture, training &amp; professional development, innovation, agency support, and tools &amp; practices to break down barriers to improving the overall customer experience. </t>
+  </si>
+  <si>
+    <t>The Cybersecurity COI is focused on being a primary contributor for ACT-IAC membership to solve their key challenges of information security and privacy. The COI goal is to provide thought leadership to effectively enable them to address their mission security and privacy needs in the midst of mission needs, applicable governmental policy, regulations and laws, and the ever-changing IT security and privacy threats. COI members focus on blending information security, sharing, and privacy policies from acquisition through execution. </t>
   </si>
   <si>
     <t>The Emerging Technology COI collaborates with federal Chief Executive Officers (CXOs) and other government executives responsible for identifying, assessing, and deploying emerging technology and maturing it to become a major component of the IT &amp; business strategy, as well as industry, government, academia, and the greater community to provide products, services, processes, and business models enabling innovative approaches to solving government issues and challenges.</t>
@@ -294,7 +300,7 @@
     <t>The Evolving the Workforce COI brings industry and government executives together to promote improvements to federal human capital policy, practice, and operations. The COI fosters best practices through information exchange, identifying and evaluating emerging human capital innovations, and addressing human capital challenges through government/industry partnerships.</t>
   </si>
   <si>
-    <t xml:space="preserve">The Health COI was created in July 2019 as a result of the ACT-IAC mission on "health." This COI will cover all aspects of the President's Management Agenda that relate to health, support strategy, policy-making and governance, support government on health-related projects, drive to improve health customer experience along with modernization initiatives, EHR adoption and implementations, medical device security and integration, precision medicine, innovation adoption and modernization, data interoperability and data transparency, and health-related legislative impacts on Federal Health Agencies. This COI will interface and collaborate with other COIs as needed to maximize member engagement and enhance what ACT-IAC can provide to government. </t>
+    <t>The Health COI was created in July 2019 as a result of the ACT-IAC mission on "health." This COI will cover all aspects of the President's Management Agenda that relate to health, support strategy, policy-making and governance, support government on health-related projects, drive to improve health customer experience along with modernization initiatives, EHR adoption and implementations, medical device security and integration, precision medicine, innovation adoption and modernization, data interoperability and data transparency, and health-related legislative impacts on Federal Health Agencies. This COI will interface and collaborate with other COIs as needed to maximize member engagement and enhance what ACT-IAC can provide to government. </t>
   </si>
   <si>
     <t>The IT Management and Modernization Community of Interest advises and equips government with best practices and lessons learned focused on strengthening IT management and implementation and accelerating legacy IT modernization. This COI covers all aspects of IT management and modernization, to include strategy and policy making, governance, Capital Planning Investment Control (CPIC), Federal Information Technology Acquisition Reform Act (FITARA) implementation, Technology Business Management (TBM), program and project management, and operations management.</t>
@@ -342,6 +348,9 @@
     <t>Test Project 11/15a</t>
   </si>
   <si>
+    <t>The purpose of this project is to convene government and industry subject matter experts to exchange information, collect feedback from government and industry end-users regarding pre-solicitation and solicitation best practices, and provide recommendatio</t>
+  </si>
+  <si>
     <t>https://www.actiac.org/project-activity/data-dominance</t>
   </si>
   <si>
@@ -349,6 +358,9 @@
   </si>
   <si>
     <t>https://www.actiac.org/project-activity/test-project-1115a</t>
+  </si>
+  <si>
+    <t>https://www.actiac.org/project-activity/purpose-project-convene-government-and-industry-subject-matter-experts-exchange</t>
   </si>
   <si>
     <t>In Progress</t>
@@ -420,8 +432,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,10 +481,18 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -480,6 +500,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -526,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -558,9 +586,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -592,6 +638,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -767,656 +831,684 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" style="3" customWidth="1"/>
+    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="43.1640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>31</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>43</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>10</v>
       </c>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" t="s">
         <v>46</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="F9" r:id="rId8"/>
-    <hyperlink ref="F10" r:id="rId9"/>
-    <hyperlink ref="F11" r:id="rId10"/>
-    <hyperlink ref="F13" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="F15" r:id="rId13"/>
-    <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="F18" r:id="rId16"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="F15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="F16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="F17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.1640625" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>80</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>81</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" ht="112" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>84</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>102</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="66.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="50.33203125" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>114</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>116</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="2" t="s">
-        <v>132</v>
+      <c r="B21" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="B22" s="4" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
-    <hyperlink ref="B6" r:id="rId3"/>
-    <hyperlink ref="B12" r:id="rId4"/>
-    <hyperlink ref="B13" r:id="rId5"/>
-    <hyperlink ref="B14" r:id="rId6"/>
-    <hyperlink ref="B15" r:id="rId7"/>
-    <hyperlink ref="B16" r:id="rId8"/>
-    <hyperlink ref="B17" r:id="rId9"/>
-    <hyperlink ref="B18" r:id="rId10"/>
-    <hyperlink ref="B19" r:id="rId11"/>
-    <hyperlink ref="B20" r:id="rId12"/>
-    <hyperlink ref="B21" r:id="rId13"/>
-    <hyperlink ref="B22" r:id="rId14"/>
+    <hyperlink ref="B4" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B12" r:id="rId5" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B13" r:id="rId6" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B16" r:id="rId9" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B22" r:id="rId15" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
